--- a/import_compoundas.xlsx
+++ b/import_compoundas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
   <si>
     <t xml:space="preserve">CÔNG TY TNHH TƯƠNG LAI</t>
   </si>
@@ -115,7 +115,7 @@
     <t xml:space="preserve">&lt;930&gt; &lt;3050&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">NS65BL002</t>
+    <t xml:space="preserve">EP60BL602</t>
   </si>
   <si>
     <t xml:space="preserve">3053+3313</t>
@@ -253,26 +253,28 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;3108&gt;&lt;3053&gt;&lt;3146&gt;&lt;930&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS65BL002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="13">
+  <numFmts count="12">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="#,##0"/>
     <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="169" formatCode="000"/>
-    <numFmt numFmtId="170" formatCode="General"/>
-    <numFmt numFmtId="171" formatCode="0.00"/>
-    <numFmt numFmtId="172" formatCode="d\-mmm"/>
-    <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="174" formatCode="\&lt;@\&gt;"/>
-    <numFmt numFmtId="175" formatCode="0"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="0.00"/>
+    <numFmt numFmtId="171" formatCode="d\-mmm"/>
+    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="\&lt;@\&gt;"/>
+    <numFmt numFmtId="174" formatCode="0"/>
+    <numFmt numFmtId="175" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* \-??_);_(@_)"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -503,7 +505,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -644,7 +646,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -664,7 +666,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -676,183 +678,187 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="13" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="175" fontId="7" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="175" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="175" fontId="12" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="175" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="13" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="13" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="175" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="175" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="175" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="175" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="175" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="13" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="175" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -864,27 +870,27 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="7" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="12" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="13" fillId="2" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="13" fillId="2" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1485,7 +1491,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1860,7 +1866,7 @@
       </c>
       <c r="B14" s="35" t="str">
         <f aca="false">"CMB (A) -"&amp;M14</f>
-        <v>CMB (A) -NS65BL002</v>
+        <v>CMB (A) -EP60BL602</v>
       </c>
       <c r="C14" s="35" t="n">
         <v>75</v>
@@ -1904,7 +1910,7 @@
       </c>
       <c r="B15" s="35" t="str">
         <f aca="false">"CMB (A) -"&amp;M15</f>
-        <v>CMB (A) -NS65BL002</v>
+        <v>CMB (A) -EP60BL602</v>
       </c>
       <c r="C15" s="35" t="n">
         <v>75</v>
@@ -2637,12 +2643,12 @@
       <c r="J14" s="42"/>
       <c r="K14" s="43"/>
       <c r="L14" s="43"/>
-      <c r="M14" s="44" t="s">
+      <c r="M14" s="85" t="s">
         <v>58</v>
       </c>
       <c r="N14" s="45"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="87"/>
       <c r="Q14" s="32"/>
     </row>
     <row r="15" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2677,12 +2683,12 @@
       <c r="J15" s="42"/>
       <c r="K15" s="43"/>
       <c r="L15" s="43"/>
-      <c r="M15" s="44" t="s">
+      <c r="M15" s="85" t="s">
         <v>59</v>
       </c>
       <c r="N15" s="45"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="87"/>
       <c r="Q15" s="32"/>
     </row>
     <row r="16" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2717,12 +2723,12 @@
       <c r="J16" s="42"/>
       <c r="K16" s="43"/>
       <c r="L16" s="48"/>
-      <c r="M16" s="44" t="s">
+      <c r="M16" s="85" t="s">
         <v>60</v>
       </c>
       <c r="N16" s="45"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="87"/>
       <c r="Q16" s="32"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2731,7 +2737,7 @@
       </c>
       <c r="B17" s="49"/>
       <c r="C17" s="49"/>
-      <c r="D17" s="87" t="n">
+      <c r="D17" s="88" t="n">
         <v>6</v>
       </c>
       <c r="E17" s="51" t="n">
@@ -2787,8 +2793,8 @@
       <c r="J19" s="61"/>
       <c r="K19" s="62"/>
       <c r="L19" s="62"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="44"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="85"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -2995,11 +3001,11 @@
       <c r="L33" s="69"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J34" s="89" t="s">
+      <c r="J34" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -3434,31 +3440,31 @@
       <c r="D14" s="36" t="n">
         <v>5</v>
       </c>
-      <c r="E14" s="90" t="n">
+      <c r="E14" s="91" t="n">
         <v>375</v>
       </c>
       <c r="F14" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="G14" s="91" t="n">
+      <c r="G14" s="92" t="n">
         <v>375</v>
       </c>
-      <c r="H14" s="92" t="n">
+      <c r="H14" s="93" t="n">
         <f aca="false">E14-G14</f>
         <v>0</v>
       </c>
       <c r="I14" s="41"/>
       <c r="J14" s="42"/>
-      <c r="K14" s="93" t="s">
+      <c r="K14" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="93"/>
-      <c r="M14" s="44" t="s">
+      <c r="L14" s="94"/>
+      <c r="M14" s="85" t="s">
         <v>69</v>
       </c>
       <c r="N14" s="45"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="96"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="34" t="n">
@@ -3474,34 +3480,34 @@
       <c r="D15" s="36" t="n">
         <v>6</v>
       </c>
-      <c r="E15" s="90" t="n">
+      <c r="E15" s="91" t="n">
         <f aca="false">D15*C15</f>
         <v>450</v>
       </c>
       <c r="F15" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="G15" s="91" t="n">
+      <c r="G15" s="92" t="n">
         <v>450</v>
       </c>
-      <c r="H15" s="92" t="n">
+      <c r="H15" s="93" t="n">
         <f aca="false">E15-G15</f>
         <v>0</v>
       </c>
       <c r="I15" s="41"/>
       <c r="J15" s="42"/>
-      <c r="K15" s="93" t="s">
+      <c r="K15" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="L15" s="93"/>
-      <c r="M15" s="44" t="s">
+      <c r="L15" s="94"/>
+      <c r="M15" s="85" t="s">
         <v>71</v>
       </c>
       <c r="N15" s="45" t="n">
         <v>3130</v>
       </c>
-      <c r="O15" s="94"/>
-      <c r="P15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="96"/>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="34" t="n">
@@ -3517,17 +3523,17 @@
       <c r="D16" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="E16" s="90" t="n">
+      <c r="E16" s="91" t="n">
         <f aca="false">D16*C16</f>
         <v>300</v>
       </c>
       <c r="F16" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="G16" s="91" t="n">
+      <c r="G16" s="92" t="n">
         <v>265</v>
       </c>
-      <c r="H16" s="92" t="n">
+      <c r="H16" s="93" t="n">
         <f aca="false">E16-G16</f>
         <v>35</v>
       </c>
@@ -3537,7 +3543,7 @@
         <v>72</v>
       </c>
       <c r="L16" s="43"/>
-      <c r="M16" s="44" t="s">
+      <c r="M16" s="85" t="s">
         <v>73</v>
       </c>
       <c r="N16" s="45" t="n">
@@ -3560,17 +3566,17 @@
       <c r="D17" s="36" t="n">
         <v>44</v>
       </c>
-      <c r="E17" s="90" t="n">
+      <c r="E17" s="91" t="n">
         <f aca="false">D17*C17</f>
         <v>3300</v>
       </c>
       <c r="F17" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="G17" s="91" t="n">
+      <c r="G17" s="92" t="n">
         <v>3300</v>
       </c>
-      <c r="H17" s="92" t="n">
+      <c r="H17" s="93" t="n">
         <f aca="false">E17-G17</f>
         <v>0</v>
       </c>
@@ -3580,8 +3586,8 @@
         <v>74</v>
       </c>
       <c r="L17" s="43"/>
-      <c r="M17" s="44" t="s">
-        <v>29</v>
+      <c r="M17" s="85" t="s">
+        <v>75</v>
       </c>
       <c r="N17" s="45" t="s">
         <v>30</v>

--- a/import_compoundas.xlsx
+++ b/import_compoundas.xlsx
@@ -45,7 +45,7 @@
     <t xml:space="preserve">Số quản lý:</t>
   </si>
   <si>
-    <t xml:space="preserve">KHCL052416</t>
+    <t xml:space="preserve">KHCL082416</t>
   </si>
   <si>
     <t xml:space="preserve">Ngày nhu cầu:</t>
@@ -262,19 +262,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="#,##0"/>
     <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="169" formatCode="000"/>
-    <numFmt numFmtId="170" formatCode="0.00"/>
-    <numFmt numFmtId="171" formatCode="d\-mmm"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="\&lt;@\&gt;"/>
-    <numFmt numFmtId="174" formatCode="0"/>
-    <numFmt numFmtId="175" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="General"/>
+    <numFmt numFmtId="171" formatCode="0.00"/>
+    <numFmt numFmtId="172" formatCode="d\-mmm"/>
+    <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="174" formatCode="\&lt;@\&gt;"/>
+    <numFmt numFmtId="175" formatCode="0"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* \-??_);_(@_)"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -646,7 +647,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -666,7 +667,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -678,7 +679,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -690,15 +691,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="13" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="13" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="174" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -714,15 +715,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -730,7 +731,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -742,19 +743,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -762,7 +763,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -830,19 +831,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="12" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -850,15 +851,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="13" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="13" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="174" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -870,27 +871,27 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="12" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="12" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="13" fillId="2" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="13" fillId="2" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="174" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1491,7 +1492,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1872,11 +1873,11 @@
         <v>75</v>
       </c>
       <c r="D14" s="36" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E14" s="37" t="n">
         <f aca="false">D14*C14</f>
-        <v>1050</v>
+        <v>1650</v>
       </c>
       <c r="F14" s="38" t="n">
         <v>0</v>
@@ -1887,7 +1888,7 @@
       </c>
       <c r="H14" s="40" t="n">
         <f aca="false">F14+E14-G14</f>
-        <v>2</v>
+        <v>602</v>
       </c>
       <c r="I14" s="41"/>
       <c r="J14" s="42"/>
@@ -1916,11 +1917,11 @@
         <v>75</v>
       </c>
       <c r="D15" s="36" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E15" s="37" t="n">
         <f aca="false">D15*C15</f>
-        <v>1650</v>
+        <v>2250</v>
       </c>
       <c r="F15" s="38" t="n">
         <v>0</v>
@@ -1930,7 +1931,7 @@
       </c>
       <c r="H15" s="40" t="n">
         <f aca="false">F15+E15-G15</f>
-        <v>60</v>
+        <v>660</v>
       </c>
       <c r="I15" s="41"/>
       <c r="J15" s="42"/>
@@ -1955,11 +1956,11 @@
       <c r="C16" s="49"/>
       <c r="D16" s="50" t="n">
         <f aca="false">SUM(D14:D15)</f>
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E16" s="51" t="n">
         <f aca="false">SUM(E14:E15)</f>
-        <v>2700</v>
+        <v>3900</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51" t="n">
@@ -1968,7 +1969,7 @@
       </c>
       <c r="H16" s="51" t="n">
         <f aca="false">SUM(H14:H15)</f>
-        <v>62</v>
+        <v>1262</v>
       </c>
       <c r="I16" s="52"/>
       <c r="J16" s="53"/>
